--- a/public/templates/rpt_tmpl_reporte_general_campania.xlsx
+++ b/public/templates/rpt_tmpl_reporte_general_campania.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\tierrasanta\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3BD602-38A5-488F-A582-150D17ADE715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E67560-8ADF-4FA6-BB77-9598F1DC6DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>CAMPO</t>
   </si>
@@ -62,6 +62,30 @@
   </si>
   <si>
     <t>N° DE PENCAS MADRE DESPUÉS DE LA RESIEMBRA</t>
+  </si>
+  <si>
+    <t>BROTES POR PISO</t>
+  </si>
+  <si>
+    <t>FECHA EVALUACIÓN BROTES POR PISO</t>
+  </si>
+  <si>
+    <t>ACTUAL BROTES APTOS 2° PISO</t>
+  </si>
+  <si>
+    <t>BROTES 2° PISO DESPUÉS DE N DÍAS</t>
+  </si>
+  <si>
+    <t>ACTUAL BROTES APTOS 3° PISO</t>
+  </si>
+  <si>
+    <t>BROTES 3° PISO DESPUÉS DE N DÍAS</t>
+  </si>
+  <si>
+    <t>TOTAL ACTUAL BROTES 2° + 3° PISO</t>
+  </si>
+  <si>
+    <t>TOTAL BROTES 2° + 3° PISO DESPUÉS DE N DÍAS</t>
   </si>
 </sst>
 </file>
@@ -105,7 +129,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -121,6 +145,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF15803D"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -153,7 +183,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -213,6 +243,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -224,6 +264,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FF15803D"/>
       <color rgb="FFD97706"/>
     </mruColors>
   </colors>
@@ -528,10 +569,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -545,10 +586,11 @@
     <col min="8" max="8" width="20.6640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.6640625" style="10" customWidth="1"/>
     <col min="10" max="10" width="20.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5546875" customWidth="1"/>
+    <col min="11" max="15" width="18.5546875" style="24" customWidth="1"/>
+    <col min="16" max="17" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>3</v>
       </c>
@@ -563,7 +605,7 @@
       <c r="J1" s="13"/>
       <c r="K1" s="13"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
@@ -572,7 +614,7 @@
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
@@ -581,11 +623,11 @@
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="15"/>
       <c r="B4" s="15"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>4</v>
       </c>
@@ -610,8 +652,17 @@
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
       <c r="J5" s="18"/>
+      <c r="K5" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
     </row>
-    <row r="6" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="16"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -630,8 +681,29 @@
       <c r="J6" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="K6" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="O6" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="P6" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="23" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -642,9 +714,16 @@
       <c r="H7" s="5"/>
       <c r="I7" s="12"/>
       <c r="J7" s="5"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
@@ -658,6 +737,7 @@
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="C5:C6"/>
+    <mergeCell ref="K5:Q5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/public/templates/rpt_tmpl_reporte_general_campania.xlsx
+++ b/public/templates/rpt_tmpl_reporte_general_campania.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\tierrasanta\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E67560-8ADF-4FA6-BB77-9598F1DC6DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605CCAA8-B47E-444E-915D-E10C61CF435C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="86">
   <si>
     <t>CAMPO</t>
   </si>
@@ -40,15 +40,9 @@
     <t>ÁREA</t>
   </si>
   <si>
-    <t>SIEMBRA</t>
-  </si>
-  <si>
     <t>INICIO CAMPAÑA</t>
   </si>
   <si>
-    <t>FIN CAMPAÑA</t>
-  </si>
-  <si>
     <t>POBLACIÓN DE PLANTAS</t>
   </si>
   <si>
@@ -86,26 +80,215 @@
   </si>
   <si>
     <t>TOTAL BROTES 2° + 3° PISO DESPUÉS DE N DÍAS</t>
+  </si>
+  <si>
+    <t>INFESTACIÓN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FECHA DE INFESTACIÓN </t>
+  </si>
+  <si>
+    <t>TIPO DE INFESTADOR</t>
+  </si>
+  <si>
+    <t>Nº DE INFESTADORES</t>
+  </si>
+  <si>
+    <t>KG DE MAMÁ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nº DE PENCAS </t>
+  </si>
+  <si>
+    <t>Nº INFESTADORES X PENCA</t>
+  </si>
+  <si>
+    <t>GRS DE COCHINILLA MAMÁ X INFESTADOR</t>
+  </si>
+  <si>
+    <t>TIEMPO DE INICIO A INFESTACIÓN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KG DE NITRÓGENO DE INICIO A INFESTACIÓN </t>
+  </si>
+  <si>
+    <t>KG DE FÓSFORO DE INICIO A INFESTACIÓN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KG DE POTASIO DE INICIO A INFESTACIÓN </t>
+  </si>
+  <si>
+    <t>KG DE CALCIO DE INICIO A INFESTACIÓN</t>
+  </si>
+  <si>
+    <t>KG DE MAGNESIO DE INICIO A INFESTACIÓN</t>
+  </si>
+  <si>
+    <t>KG DE MANGANESO DE INICIO A INFESTESTACIÓN</t>
+  </si>
+  <si>
+    <t>KG DE ZINC DE INICIO A INFESTACIÓN</t>
+  </si>
+  <si>
+    <t>KG DE FIERRO DE INICIO A INFESTACIÓN</t>
+  </si>
+  <si>
+    <t>LT DE SALTRAD DE INICIO A INFESTACIÓN</t>
+  </si>
+  <si>
+    <t>M³ DE AGUA DESDE INICIO A INFESTACIÓN/HA</t>
+  </si>
+  <si>
+    <t>LT DE AGUA POR PENCA DE INICIO A INFESTACIÓN</t>
+  </si>
+  <si>
+    <t>FECHA DE RE-INFESTACIÓN</t>
+  </si>
+  <si>
+    <t>Nº DE PENCAS</t>
+  </si>
+  <si>
+    <t>TIEMPO DE INFESTACIÓN A RE-INFESTACIÓN</t>
+  </si>
+  <si>
+    <t>KG DE NITRÓGENO DE INFESTACIÓN A RE-INFESTACIÓN</t>
+  </si>
+  <si>
+    <t>KG DE FÓSFORO DE INFESTACIÓN A RE-INFESTACIÓN</t>
+  </si>
+  <si>
+    <t>KG DE POTASIO DE INFESTACIÓN A RE-INFESTACIÓN</t>
+  </si>
+  <si>
+    <t>KG DE CALCIO DE INFESTACIÓN A RE-INFESTACIÓN</t>
+  </si>
+  <si>
+    <t>KG DE MAGNESIO DE INFESTACIÓN A RE-INFESTACIÓN</t>
+  </si>
+  <si>
+    <t>KG DE MANGANESO DE INFESTACIÓN A RE-INFESTACIÓN</t>
+  </si>
+  <si>
+    <t>KG DE ZINC DE INFESTACIÓN A RE-INFESTACIÓN</t>
+  </si>
+  <si>
+    <t>KG DE FIERRO DE INFESTACIÓN A RE-INFESTACIÓN</t>
+  </si>
+  <si>
+    <t>LT DE SALTRAD DE INFESTACIÓN A RE-INFESTACIÓN</t>
+  </si>
+  <si>
+    <t>M³ DE AGUA DESDE INFESTACIÓN A RE-INFESTACIÓN/HA</t>
+  </si>
+  <si>
+    <t>LT DE AGUA POR PENCA DE INFESTACIÓN A RE-INFESTACIÓN</t>
+  </si>
+  <si>
+    <t>REINFESTACIÓN</t>
+  </si>
+  <si>
+    <t>FECHA DE COSECHA</t>
+  </si>
+  <si>
+    <t>TIEMPO DE INFESTACIÓN A COSECHA</t>
+  </si>
+  <si>
+    <t>TIEMPO DE RE-INFESTACIÓN A COSECHA</t>
+  </si>
+  <si>
+    <t>TIEMPO DE INICIO A COSECHA</t>
+  </si>
+  <si>
+    <t>KG DE NITRÓGENO DE INICIO A COSECHA</t>
+  </si>
+  <si>
+    <t>KG DE FÓSFORO DE INICIO A COSECHA</t>
+  </si>
+  <si>
+    <t>KG DE POTASIO DE INICIO A COSECHA</t>
+  </si>
+  <si>
+    <t>KG DE CALCIO DE INICIO A COSECHA</t>
+  </si>
+  <si>
+    <t>KG DE MAGNESIO DE INICIO A COSECHA</t>
+  </si>
+  <si>
+    <t>KG DE MANGANESO DE INICIO A COSECHA</t>
+  </si>
+  <si>
+    <t>KG DE ZINC DE INICIO A COSECHA</t>
+  </si>
+  <si>
+    <t>KG DE FIERRO DE INICIO A COSECHA</t>
+  </si>
+  <si>
+    <t>LT DE SALTRAD DE INICIO A COSECHA</t>
+  </si>
+  <si>
+    <t>M³ DE AGUA DESDE INICIO A COSECHA/HA</t>
+  </si>
+  <si>
+    <t>LT DE AGUA POR PENCA DE INICIO A COSECHA</t>
+  </si>
+  <si>
+    <t>COSECHA (KG)</t>
+  </si>
+  <si>
+    <t>RENDIMIENTO TOTAL (KG)</t>
+  </si>
+  <si>
+    <t>RENDIMIENTO POR INFESTADOR (GR)</t>
+  </si>
+  <si>
+    <t>RENDIMIENTO POR PENCA (GR)</t>
+  </si>
+  <si>
+    <t>PROYECCION COSECHA CONTEO</t>
+  </si>
+  <si>
+    <t>PROYECCION COSECHA PODA</t>
+  </si>
+  <si>
+    <t>DIFERENCIA PROYECCION CONTEO</t>
+  </si>
+  <si>
+    <t>DIFERENCIA PROYECCION PODA</t>
+  </si>
+  <si>
+    <t>COSECHA</t>
+  </si>
+  <si>
+    <t>COSTO $</t>
+  </si>
+  <si>
+    <t>PRECIO VENTA $</t>
+  </si>
+  <si>
+    <t>VENTA TOTAL $</t>
+  </si>
+  <si>
+    <t>UTILIDAD O PERDIDA $</t>
+  </si>
+  <si>
+    <t>COSTO X KG</t>
+  </si>
+  <si>
+    <t>% UTILIDAD</t>
+  </si>
+  <si>
+    <t>ANÁLISIS FINANCIERO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_-&quot;S/&quot;\ * #,##0.00_-;\-&quot;S/&quot;\ * #,##0.00_-;_-&quot;S/&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -128,8 +311,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -150,12 +340,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF15803D"/>
+        <fgColor rgb="FFDC2626"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF059669"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF65A30D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0891B2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2563EB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -178,94 +392,156 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FF2563EB"/>
+      <color rgb="FF0891B2"/>
+      <color rgb="FF059669"/>
+      <color rgb="FF65A30D"/>
+      <color rgb="FFD97706"/>
+      <color rgb="FFDC2626"/>
       <color rgb="FF15803D"/>
-      <color rgb="FFD97706"/>
     </mruColors>
   </colors>
   <extLst>
@@ -569,175 +845,508 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:CD7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="BF6" sqref="BF6:CD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" style="2" customWidth="1"/>
-    <col min="4" max="5" width="16.6640625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" style="10" customWidth="1"/>
-    <col min="10" max="10" width="20.6640625" style="1" customWidth="1"/>
-    <col min="11" max="15" width="18.5546875" style="24" customWidth="1"/>
-    <col min="16" max="17" width="18.5546875" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10" style="1" customWidth="1"/>
+    <col min="9" max="13" width="10" style="26" customWidth="1"/>
+    <col min="14" max="57" width="10" style="8" customWidth="1"/>
+    <col min="58" max="77" width="10" style="32" customWidth="1"/>
+    <col min="78" max="82" width="9.109375" style="32"/>
+    <col min="83" max="16384" width="9.109375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:82" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
+    <row r="4" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+    <row r="5" spans="1:82" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="17"/>
+      <c r="AA5" s="17"/>
+      <c r="AB5" s="17"/>
+      <c r="AC5" s="17"/>
+      <c r="AD5" s="17"/>
+      <c r="AE5" s="17"/>
+      <c r="AF5" s="17"/>
+      <c r="AG5" s="17"/>
+      <c r="AH5" s="17"/>
+      <c r="AI5" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ5" s="19"/>
+      <c r="AK5" s="19"/>
+      <c r="AL5" s="19"/>
+      <c r="AM5" s="19"/>
+      <c r="AN5" s="19"/>
+      <c r="AO5" s="19"/>
+      <c r="AP5" s="19"/>
+      <c r="AQ5" s="19"/>
+      <c r="AR5" s="19"/>
+      <c r="AS5" s="19"/>
+      <c r="AT5" s="19"/>
+      <c r="AU5" s="19"/>
+      <c r="AV5" s="19"/>
+      <c r="AW5" s="19"/>
+      <c r="AX5" s="19"/>
+      <c r="AY5" s="19"/>
+      <c r="AZ5" s="19"/>
+      <c r="BA5" s="19"/>
+      <c r="BB5" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="BC5" s="22"/>
+      <c r="BD5" s="22"/>
+      <c r="BE5" s="22"/>
+      <c r="BF5" s="22"/>
+      <c r="BG5" s="22"/>
+      <c r="BH5" s="22"/>
+      <c r="BI5" s="22"/>
+      <c r="BJ5" s="22"/>
+      <c r="BK5" s="22"/>
+      <c r="BL5" s="22"/>
+      <c r="BM5" s="22"/>
+      <c r="BN5" s="22"/>
+      <c r="BO5" s="22"/>
+      <c r="BP5" s="22"/>
+      <c r="BQ5" s="22"/>
+      <c r="BR5" s="22"/>
+      <c r="BS5" s="22"/>
+      <c r="BT5" s="22"/>
+      <c r="BU5" s="22"/>
+      <c r="BV5" s="22"/>
+      <c r="BW5" s="22"/>
+      <c r="BX5" s="22"/>
+      <c r="BY5" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="BZ5" s="30"/>
+      <c r="CA5" s="30"/>
+      <c r="CB5" s="30"/>
+      <c r="CC5" s="30"/>
+      <c r="CD5" s="30"/>
+    </row>
+    <row r="6" spans="1:82" s="10" customFormat="1" ht="115.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="F6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="21" t="s">
+      <c r="G6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
+      <c r="K6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="P6" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q6" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="R6" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="S6" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="T6" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="U6" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="V6" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="W6" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="X6" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y6" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z6" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA6" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB6" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC6" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD6" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE6" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF6" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG6" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH6" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI6" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ6" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK6" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL6" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM6" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN6" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO6" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP6" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ6" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR6" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AS6" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT6" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU6" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="AV6" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="AW6" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="AX6" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY6" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="AZ6" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="BA6" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="BB6" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="BC6" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="BD6" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="BE6" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="BF6" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="BG6" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="BH6" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="BI6" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="BJ6" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="BK6" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="BL6" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="BM6" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN6" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="BO6" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="BP6" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="BQ6" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="BR6" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="BS6" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="BT6" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="BU6" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="BV6" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="BW6" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="BX6" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="BY6" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="BZ6" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="CA6" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="CB6" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="CC6" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="CD6" s="24" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="M6" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="N6" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="O6" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="P6" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q6" s="23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
+    <row r="7" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="2"/>
+      <c r="AK7" s="2"/>
+      <c r="AL7" s="2"/>
+      <c r="AM7" s="2"/>
+      <c r="AN7" s="2"/>
+      <c r="AO7" s="2"/>
+      <c r="AP7" s="2"/>
+      <c r="AQ7" s="2"/>
+      <c r="AR7" s="2"/>
+      <c r="AS7" s="2"/>
+      <c r="AT7" s="2"/>
+      <c r="AU7" s="2"/>
+      <c r="AV7" s="2"/>
+      <c r="AW7" s="2"/>
+      <c r="AX7" s="2"/>
+      <c r="AY7" s="2"/>
+      <c r="AZ7" s="2"/>
+      <c r="BA7" s="2"/>
+      <c r="BB7" s="2"/>
+      <c r="BC7" s="2"/>
+      <c r="BD7" s="2"/>
+      <c r="BE7" s="2"/>
+      <c r="BF7" s="31"/>
+      <c r="BG7" s="31"/>
+      <c r="BH7" s="31"/>
+      <c r="BI7" s="31"/>
+      <c r="BJ7" s="31"/>
+      <c r="BK7" s="31"/>
+      <c r="BL7" s="31"/>
+      <c r="BM7" s="31"/>
+      <c r="BN7" s="31"/>
+      <c r="BO7" s="31"/>
+      <c r="BP7" s="31"/>
+      <c r="BQ7" s="31"/>
+      <c r="BR7" s="31"/>
+      <c r="BS7" s="31"/>
+      <c r="BT7" s="31"/>
+      <c r="BU7" s="31"/>
+      <c r="BV7" s="31"/>
+      <c r="BW7" s="31"/>
+      <c r="BX7" s="31"/>
+      <c r="BY7" s="31"/>
+      <c r="BZ7" s="31"/>
+      <c r="CA7" s="31"/>
+      <c r="CB7" s="31"/>
+      <c r="CC7" s="31"/>
+      <c r="CD7" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A1:K1"/>
+  <mergeCells count="16">
+    <mergeCell ref="BB5:BX5"/>
+    <mergeCell ref="BY5:CD5"/>
+    <mergeCell ref="P5:AH5"/>
+    <mergeCell ref="AI5:BA5"/>
+    <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E5:H5"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="C5:C6"/>
-    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="I5:O5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
